--- a/V24/results/results_p3/capacityv24.xlsx
+++ b/V24/results/results_p3/capacityv24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisydneyedu-my.sharepoint.com/personal/loli0945_uni_sydney_edu_au/Documents/ESIPS/NEM model/expanded/NEMv24/results/results_p3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisydneyedu-my.sharepoint.com/personal/loli0945_uni_sydney_edu_au/Documents/ESIPS/NEM model/expanded/NEMv24/V24/results/results_p3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{EE57A85E-959D-4C8C-B219-5CB749F254B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D11E5D6C-A358-4388-AC79-63B3E8AF75AF}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{EE57A85E-959D-4C8C-B219-5CB749F254B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F5D224-5138-4A26-AD12-596E3FA49EE9}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3CB1E3ED-8EA7-4234-8662-1E968DAEA5AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CB1E3ED-8EA7-4234-8662-1E968DAEA5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="capacity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4591,18 +4604,6 @@
           <cell r="S3" t="str">
             <v>QLD</v>
           </cell>
-          <cell r="T3" t="str">
-            <v>NSW</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>VIC</v>
-          </cell>
-          <cell r="V3" t="str">
-            <v>SA</v>
-          </cell>
-          <cell r="W3" t="str">
-            <v>TAS</v>
-          </cell>
           <cell r="AA3" t="str">
             <v>QLD</v>
           </cell>
@@ -4620,24 +4621,6 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="R4" t="str">
-            <v>CCGT</v>
-          </cell>
-          <cell r="S4">
-            <v>3622.4764891733057</v>
-          </cell>
-          <cell r="T4">
-            <v>4175.6046369034839</v>
-          </cell>
-          <cell r="U4">
-            <v>1778.12930179615</v>
-          </cell>
-          <cell r="V4">
-            <v>1145.56647342017</v>
-          </cell>
-          <cell r="W4">
-            <v>492.64016309019399</v>
-          </cell>
           <cell r="Z4" t="str">
             <v>Battery</v>
           </cell>
@@ -4658,24 +4641,6 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="R5" t="str">
-            <v>OCGT</v>
-          </cell>
-          <cell r="S5">
-            <v>6985.1936722988103</v>
-          </cell>
-          <cell r="T5">
-            <v>7497.8692329713103</v>
-          </cell>
-          <cell r="U5">
-            <v>6824.2865871558697</v>
-          </cell>
-          <cell r="V5">
-            <v>5125.2605303386499</v>
-          </cell>
-          <cell r="W5">
-            <v>3109.6594817199302</v>
-          </cell>
           <cell r="Z5" t="str">
             <v>PHES</v>
           </cell>
@@ -4693,86 +4658,6 @@
           </cell>
           <cell r="AE5">
             <v>63000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="R6" t="str">
-            <v>SOLAR</v>
-          </cell>
-          <cell r="S6">
-            <v>13226.998116061559</v>
-          </cell>
-          <cell r="T6">
-            <v>14282.58062579181</v>
-          </cell>
-          <cell r="U6">
-            <v>6389.6771768026001</v>
-          </cell>
-          <cell r="V6">
-            <v>4050</v>
-          </cell>
-          <cell r="W6">
-            <v>500</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="R7" t="str">
-            <v>WIND</v>
-          </cell>
-          <cell r="S7">
-            <v>26451.246575002559</v>
-          </cell>
-          <cell r="T7">
-            <v>20400</v>
-          </cell>
-          <cell r="U7">
-            <v>7700</v>
-          </cell>
-          <cell r="V7">
-            <v>6500</v>
-          </cell>
-          <cell r="W7">
-            <v>3700</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="R8" t="str">
-            <v>BATTERY(MW)</v>
-          </cell>
-          <cell r="S8">
-            <v>2120.8547136418538</v>
-          </cell>
-          <cell r="T8">
-            <v>1124.047502456712</v>
-          </cell>
-          <cell r="U8">
-            <v>580.4</v>
-          </cell>
-          <cell r="V8">
-            <v>512.42999999999995</v>
-          </cell>
-          <cell r="W8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="R9" t="str">
-            <v>PHES</v>
-          </cell>
-          <cell r="S9">
-            <v>1485.9708556087201</v>
-          </cell>
-          <cell r="T9">
-            <v>5739.9945905108871</v>
-          </cell>
-          <cell r="U9">
-            <v>491.90601678103098</v>
-          </cell>
-          <cell r="V9">
-            <v>900</v>
-          </cell>
-          <cell r="W9">
-            <v>2750</v>
           </cell>
         </row>
       </sheetData>
@@ -5100,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253D0B60-8550-4CC3-9B61-6CFA46EB33FC}">
   <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5381,6 +5266,10 @@
         <f t="shared" si="0"/>
         <v>607.54182946482604</v>
       </c>
+      <c r="X4" s="1">
+        <f>SUM(S4:W4)</f>
+        <v>12078.697607703432</v>
+      </c>
       <c r="Z4" t="s">
         <v>125</v>
       </c>
@@ -5480,6 +5369,10 @@
         <f t="shared" si="1"/>
         <v>535.395241450909</v>
       </c>
+      <c r="X5" s="1">
+        <f t="shared" ref="X4:X9" si="2">SUM(S5:W5)</f>
+        <v>30986.685077914477</v>
+      </c>
       <c r="Z5" t="s">
         <v>127</v>
       </c>
@@ -5564,20 +5457,24 @@
         <v>15738.888047863171</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:W6" si="2">S50</f>
+        <f t="shared" ref="T6:W6" si="3">S50</f>
         <v>17819.936720795362</v>
       </c>
       <c r="U6" s="1">
+        <f t="shared" si="3"/>
+        <v>6700</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="3"/>
+        <v>7700</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="X6" s="1">
         <f t="shared" si="2"/>
-        <v>6700</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>7700</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <v>48458.824768658531</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -5640,20 +5537,24 @@
         <v>30471.357065190419</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" ref="T7:W7" si="3">S69</f>
+        <f t="shared" ref="T7:W7" si="4">S69</f>
         <v>20000</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9700</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3700</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="2"/>
+        <v>70371.357065190416</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -5716,20 +5617,24 @@
         <v>2120.83528387868</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" ref="T8:W8" si="4">S89</f>
+        <f t="shared" ref="T8:W8" si="5">S89</f>
         <v>3588.9176800233304</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>580.4</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>512.42999999999995</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="2"/>
+        <v>6802.5829639020103</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -5806,6 +5711,10 @@
       <c r="W9" s="1">
         <f>V105</f>
         <v>2750</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="2"/>
+        <v>15549.581780253655</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
